--- a/Portfolio-task-1/data/data-entry.xlsx
+++ b/Portfolio-task-1/data/data-entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myune-my.sharepoint.com/personal/spullen3_myune_edu_au/Documents/HINQ302/Assignment-2/Portfolio-task-1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="14_{AC019D64-E02A-443E-85E3-13124E102690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA44A992-96BC-493D-8512-E339BDEC74E0}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="14_{AC019D64-E02A-443E-85E3-13124E102690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE52D10E-696E-4FD3-A796-ADA5A6B709E4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="491">
   <si>
     <t>DIGITAL_OBJECT - URL_TEXT</t>
   </si>
@@ -1150,9 +1150,6 @@
     <t>https://stors.tas.gov.au/NI/1758401</t>
   </si>
   <si>
-    <t>Sheed</t>
-  </si>
-  <si>
     <t>Joseph</t>
   </si>
   <si>
@@ -1466,6 +1463,36 @@
   </si>
   <si>
     <t>North east by five chains and eighty links south eastlery along the main road leading from Launceston to the city of Hobart Town commencing with its angle with Sophia Street. on the south east by four chains and twenty links south westerly along lot three purchased from the Crown by John Ashton. On the south west by two chains and eighty links north westerly along lot eight to Sophia Street aforesaid and thence on the north west by four chains and sixteen links north easterly along that street to the point of commencement</t>
+  </si>
+  <si>
+    <t>South east by four chains and twenty links north easterly along Elizabeth street from its angle with Louisa Street on the north east by five chains and forty three links north westerly along lot one purchased from the Crown by John Ashton. On the north west by four chains and twenty one links south westerly along lot six purchased from the crown by John Olive to Louisa Street aforesaid and thence on the south weat by two chains and forty links south easterly along that street to the point of commencement</t>
+  </si>
+  <si>
+    <t>South east by five chains and twenty three links north easterly along lot six purchased from the Crown by the said John Olive commencing at the west angle thereof on Louisa Street on the north east by two chaiins and forty links north westerly along lot three purchased from the crown by John Ashton. On the north west by four chains and twenty three links south westerly along lot eight purchased from the crown by Joseph Speed to Louisa Street aforesaid and thence on the south west by two chains and forty links south easterly along that street to the point oc commencement</t>
+  </si>
+  <si>
+    <t>North west by four chains and twenty links north easterly along Elizabeth Street from its angle with Louisa Street on the north east by two chains and sixty links south easterly along lot one purchased from the crown by George Otter on the south eats by four chains and nineteen links south westerly along lot four purchased from the crown by John Olive to Louisa Street aforesaid and thence on the south west by two chains and sixty links north westerly along that street to the point of commencement</t>
+  </si>
+  <si>
+    <t>South west by two chains and eighty links south easterly along Louisa Street from its angle with Sophia Street on the south east by four chains and twenty three links north easterly along lot seven purchased from the Crown by John Olive. on the north east by five chains and eighty links north westerly along lot four purchased from the crown by William Huntley to Sophia Streen aforesaid and thence on the north west by four chains and twenty five links south westerly along that street to the point of commencement</t>
+  </si>
+  <si>
+    <t>North east by one chain and seventy links south easterly along the Main Road to the City of Hobart Town from its angle with Burnett Street on the south east by three chains and twenty two links south westerly along lot 10 on the south west by fifty seven links north westerly along lot 10 to Burnett Street aforesdaid and thence on the north western side by three chains and thirty four links north easterly along that street to the point of commencement</t>
+  </si>
+  <si>
+    <t>North east by one chain south easterly along the Main Road to Hobart commencing at the east angle of Lot 2 on that road on the south east by three chains and ninety three links south westerly along an allotment located to the Baptist Community for a Place of Worchip. On the south west by one chain north westerly along Lot 8 and thence on the north west by three chains and ninety one links north easterly along Lot 2 aforesaid to the point of commencement</t>
+  </si>
+  <si>
+    <t>North east by one chain south easterly along the Main Road to Hobart commencing at the East angle of Lot 7 on that road. On the south east by three chains and forty two links south westerly along Lot 5. On the south west by one chain. North westerly along Lot 14 and thence on the north west by three chains and thirty nine links. north easterly slong Lot 7 aforesaid to the point of commencement.</t>
+  </si>
+  <si>
+    <t>South east by three chains and sisxty five links. south westerly along Erskine Street from its angle with the Main Road to Hobart. on the south west by one chain north westerly along Lot 12. on the north west by three chains and sixty one links. north eastelry along Lot 2 to the aforesaid Main Road and thence on the north east by one chain south easterly along that road to the point of commencement.</t>
+  </si>
+  <si>
+    <t>North east by five chains and seventy eight links south westerly along the Main Road to Hobart from its angle with Erskine Street on the south east by three chains and seventy eight links south westerly along lot 4 on the south west by five chains north westerly along Lot 10 to Erskine Street aforesaid and thence on the north west by three chains and sixty nine links north easterly along that street to the point of commencement.</t>
+  </si>
+  <si>
+    <t>North west by four chains and twenty five links. north easterly along Lot 10 commencing at the south angle of that allotment on Louisa Street on the north east by two chains south easterly along Lots 3 and 4. on the south east by four chains and twenty five links south westerly along lot 8 and thence on the south west by five chains north westerly along Louisa Street aforesaid to the point of commencement</t>
   </si>
 </sst>
 </file>
@@ -2308,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2369,19 +2396,19 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>463</v>
+      </c>
+      <c r="R1" t="s">
         <v>464</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>470</v>
+      </c>
+      <c r="T1" t="s">
         <v>465</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>471</v>
-      </c>
-      <c r="T1" t="s">
-        <v>466</v>
-      </c>
-      <c r="U1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -2437,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -2496,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
+        <v>468</v>
+      </c>
+      <c r="U3" t="s">
         <v>469</v>
-      </c>
-      <c r="U3" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -2555,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
+        <v>468</v>
+      </c>
+      <c r="U4" t="s">
         <v>469</v>
-      </c>
-      <c r="U4" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -2614,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
+        <v>468</v>
+      </c>
+      <c r="U5" t="s">
         <v>469</v>
-      </c>
-      <c r="U5" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -2673,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -2732,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -2791,48 +2818,48 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" t="s">
         <v>413</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>414</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>415</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>416</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>417</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>418</v>
-      </c>
-      <c r="G9" t="s">
-        <v>419</v>
       </c>
       <c r="H9">
         <v>1842</v>
       </c>
       <c r="I9" t="s">
+        <v>419</v>
+      </c>
+      <c r="J9" t="s">
         <v>420</v>
-      </c>
-      <c r="J9" t="s">
-        <v>421</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M9" t="s">
         <v>27</v>
@@ -2850,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -2909,39 +2936,39 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" t="s">
         <v>442</v>
       </c>
-      <c r="B11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>443</v>
       </c>
-      <c r="D11" t="s">
-        <v>444</v>
-      </c>
       <c r="E11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F11" t="s">
         <v>312</v>
       </c>
       <c r="G11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H11">
         <v>1844</v>
       </c>
       <c r="I11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
@@ -2950,7 +2977,7 @@
         <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M11" t="s">
         <v>330</v>
@@ -2968,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -3018,19 +3045,19 @@
         <v>1845</v>
       </c>
       <c r="Q12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="R12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -3086,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -3145,7 +3172,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="U14" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -3183,10 +3213,10 @@
         <v>25</v>
       </c>
       <c r="L15" t="s">
+        <v>394</v>
+      </c>
+      <c r="M15" t="s">
         <v>376</v>
-      </c>
-      <c r="M15" t="s">
-        <v>377</v>
       </c>
       <c r="O15">
         <v>1846</v>
@@ -3201,21 +3231,24 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="U15" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B16" t="s">
         <v>370</v>
       </c>
       <c r="C16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" t="s">
         <v>379</v>
-      </c>
-      <c r="D16" t="s">
-        <v>380</v>
       </c>
       <c r="E16" t="s">
         <v>373</v>
@@ -3224,13 +3257,13 @@
         <v>319</v>
       </c>
       <c r="G16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H16">
         <v>1846</v>
       </c>
       <c r="I16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J16" t="s">
         <v>51</v>
@@ -3239,10 +3272,10 @@
         <v>25</v>
       </c>
       <c r="L16" t="s">
+        <v>394</v>
+      </c>
+      <c r="M16" t="s">
         <v>376</v>
-      </c>
-      <c r="M16" t="s">
-        <v>377</v>
       </c>
       <c r="O16">
         <v>1846</v>
@@ -3257,21 +3290,24 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="U16" t="s">
+        <v>483</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B17" t="s">
         <v>370</v>
       </c>
       <c r="C17" t="s">
+        <v>383</v>
+      </c>
+      <c r="D17" t="s">
         <v>384</v>
-      </c>
-      <c r="D17" t="s">
-        <v>385</v>
       </c>
       <c r="E17" t="s">
         <v>373</v>
@@ -3280,25 +3316,25 @@
         <v>319</v>
       </c>
       <c r="G17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H17">
         <v>1846</v>
       </c>
       <c r="I17" t="s">
+        <v>386</v>
+      </c>
+      <c r="J17" t="s">
         <v>387</v>
-      </c>
-      <c r="J17" t="s">
-        <v>388</v>
       </c>
       <c r="K17" t="s">
         <v>25</v>
       </c>
       <c r="L17" t="s">
+        <v>394</v>
+      </c>
+      <c r="M17" t="s">
         <v>376</v>
-      </c>
-      <c r="M17" t="s">
-        <v>377</v>
       </c>
       <c r="O17">
         <v>1846</v>
@@ -3313,21 +3349,24 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="U17" t="s">
+        <v>484</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B18" t="s">
         <v>370</v>
       </c>
       <c r="C18" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" t="s">
         <v>390</v>
-      </c>
-      <c r="D18" t="s">
-        <v>391</v>
       </c>
       <c r="E18" t="s">
         <v>373</v>
@@ -3336,25 +3375,25 @@
         <v>227</v>
       </c>
       <c r="G18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H18">
         <v>1848</v>
       </c>
       <c r="I18" t="s">
+        <v>392</v>
+      </c>
+      <c r="J18" t="s">
         <v>393</v>
-      </c>
-      <c r="J18" t="s">
-        <v>394</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O18">
         <v>1848</v>
@@ -3369,21 +3408,24 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="U18" t="s">
+        <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B19" t="s">
         <v>370</v>
       </c>
       <c r="C19" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19" t="s">
         <v>397</v>
-      </c>
-      <c r="D19" t="s">
-        <v>398</v>
       </c>
       <c r="E19" t="s">
         <v>373</v>
@@ -3392,25 +3434,25 @@
         <v>227</v>
       </c>
       <c r="G19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H19">
         <v>1848</v>
       </c>
       <c r="I19" t="s">
+        <v>399</v>
+      </c>
+      <c r="J19" t="s">
         <v>400</v>
-      </c>
-      <c r="J19" t="s">
-        <v>401</v>
       </c>
       <c r="K19" t="s">
         <v>25</v>
       </c>
       <c r="L19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O19">
         <v>1848</v>
@@ -3425,21 +3467,24 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="U19" t="s">
+        <v>486</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B20" t="s">
         <v>370</v>
       </c>
       <c r="C20" t="s">
+        <v>402</v>
+      </c>
+      <c r="D20" t="s">
         <v>403</v>
-      </c>
-      <c r="D20" t="s">
-        <v>404</v>
       </c>
       <c r="E20" t="s">
         <v>373</v>
@@ -3448,25 +3493,25 @@
         <v>227</v>
       </c>
       <c r="G20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H20">
         <v>1848</v>
       </c>
       <c r="I20" t="s">
+        <v>405</v>
+      </c>
+      <c r="J20" t="s">
         <v>406</v>
-      </c>
-      <c r="J20" t="s">
-        <v>407</v>
       </c>
       <c r="K20" t="s">
         <v>25</v>
       </c>
       <c r="L20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O20">
         <v>1848</v>
@@ -3481,21 +3526,24 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="U20" t="s">
+        <v>487</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B21" t="s">
         <v>370</v>
       </c>
       <c r="C21" t="s">
+        <v>408</v>
+      </c>
+      <c r="D21" t="s">
         <v>409</v>
-      </c>
-      <c r="D21" t="s">
-        <v>410</v>
       </c>
       <c r="E21" t="s">
         <v>373</v>
@@ -3504,25 +3552,25 @@
         <v>227</v>
       </c>
       <c r="G21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H21">
         <v>1848</v>
       </c>
       <c r="I21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K21" t="s">
         <v>25</v>
       </c>
       <c r="L21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O21">
         <v>1848</v>
@@ -3537,10 +3585,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="U21" t="s">
+        <v>488</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>224</v>
       </c>
@@ -3593,48 +3644,51 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="U22" t="s">
+        <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>431</v>
+      </c>
+      <c r="B23" t="s">
         <v>432</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>433</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>434</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>435</v>
-      </c>
-      <c r="E23" t="s">
-        <v>436</v>
       </c>
       <c r="F23" t="s">
         <v>227</v>
       </c>
       <c r="G23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H23">
         <v>1848</v>
       </c>
       <c r="I23" t="s">
+        <v>437</v>
+      </c>
+      <c r="J23" t="s">
         <v>438</v>
-      </c>
-      <c r="J23" t="s">
-        <v>439</v>
       </c>
       <c r="K23" t="s">
         <v>25</v>
       </c>
       <c r="L23" t="s">
+        <v>439</v>
+      </c>
+      <c r="M23" t="s">
         <v>440</v>
-      </c>
-      <c r="M23" t="s">
-        <v>441</v>
       </c>
       <c r="O23">
         <v>1848</v>
@@ -3649,10 +3703,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="U23" t="s">
+        <v>490</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -3705,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -3761,10 +3818,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>232</v>
       </c>
@@ -3817,10 +3874,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -3876,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>238</v>
       </c>
@@ -3920,7 +3977,7 @@
         <v>247</v>
       </c>
       <c r="O28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q28">
         <v>28</v>
@@ -3932,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>331</v>
       </c>
@@ -3988,10 +4045,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>337</v>
       </c>
@@ -4044,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -4100,10 +4157,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -4147,16 +4204,16 @@
         <v>1852</v>
       </c>
       <c r="Q32" t="s">
+        <v>467</v>
+      </c>
+      <c r="R32" t="s">
+        <v>467</v>
+      </c>
+      <c r="S32" t="s">
+        <v>467</v>
+      </c>
+      <c r="T32" t="s">
         <v>468</v>
-      </c>
-      <c r="R32" t="s">
-        <v>468</v>
-      </c>
-      <c r="S32" t="s">
-        <v>468</v>
-      </c>
-      <c r="T32" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -4212,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -4259,16 +4316,16 @@
         <v>1855</v>
       </c>
       <c r="Q34" t="s">
+        <v>467</v>
+      </c>
+      <c r="R34" t="s">
+        <v>467</v>
+      </c>
+      <c r="S34" t="s">
+        <v>467</v>
+      </c>
+      <c r="T34" t="s">
         <v>468</v>
-      </c>
-      <c r="R34" t="s">
-        <v>468</v>
-      </c>
-      <c r="S34" t="s">
-        <v>468</v>
-      </c>
-      <c r="T34" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -4315,16 +4372,16 @@
         <v>1857</v>
       </c>
       <c r="Q35" t="s">
+        <v>467</v>
+      </c>
+      <c r="R35" t="s">
+        <v>467</v>
+      </c>
+      <c r="S35" t="s">
+        <v>467</v>
+      </c>
+      <c r="T35" t="s">
         <v>468</v>
-      </c>
-      <c r="R35" t="s">
-        <v>468</v>
-      </c>
-      <c r="S35" t="s">
-        <v>468</v>
-      </c>
-      <c r="T35" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -4371,16 +4428,16 @@
         <v>1857</v>
       </c>
       <c r="Q36" t="s">
+        <v>467</v>
+      </c>
+      <c r="R36" t="s">
+        <v>467</v>
+      </c>
+      <c r="S36" t="s">
+        <v>467</v>
+      </c>
+      <c r="T36" t="s">
         <v>468</v>
-      </c>
-      <c r="R36" t="s">
-        <v>468</v>
-      </c>
-      <c r="S36" t="s">
-        <v>468</v>
-      </c>
-      <c r="T36" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -4427,16 +4484,16 @@
         <v>1857</v>
       </c>
       <c r="Q37" t="s">
+        <v>467</v>
+      </c>
+      <c r="R37" t="s">
+        <v>467</v>
+      </c>
+      <c r="S37" t="s">
+        <v>467</v>
+      </c>
+      <c r="T37" t="s">
         <v>468</v>
-      </c>
-      <c r="R37" t="s">
-        <v>468</v>
-      </c>
-      <c r="S37" t="s">
-        <v>468</v>
-      </c>
-      <c r="T37" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -4483,16 +4540,16 @@
         <v>1857</v>
       </c>
       <c r="Q38" t="s">
+        <v>467</v>
+      </c>
+      <c r="R38" t="s">
+        <v>467</v>
+      </c>
+      <c r="S38" t="s">
+        <v>467</v>
+      </c>
+      <c r="T38" t="s">
         <v>468</v>
-      </c>
-      <c r="R38" t="s">
-        <v>468</v>
-      </c>
-      <c r="S38" t="s">
-        <v>468</v>
-      </c>
-      <c r="T38" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -4539,16 +4596,16 @@
         <v>1857</v>
       </c>
       <c r="Q39" t="s">
+        <v>467</v>
+      </c>
+      <c r="R39" t="s">
+        <v>467</v>
+      </c>
+      <c r="S39" t="s">
+        <v>467</v>
+      </c>
+      <c r="T39" t="s">
         <v>468</v>
-      </c>
-      <c r="R39" t="s">
-        <v>468</v>
-      </c>
-      <c r="S39" t="s">
-        <v>468</v>
-      </c>
-      <c r="T39" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -4595,16 +4652,16 @@
         <v>1857</v>
       </c>
       <c r="Q40" t="s">
+        <v>467</v>
+      </c>
+      <c r="R40" t="s">
+        <v>467</v>
+      </c>
+      <c r="S40" t="s">
+        <v>467</v>
+      </c>
+      <c r="T40" t="s">
         <v>468</v>
-      </c>
-      <c r="R40" t="s">
-        <v>468</v>
-      </c>
-      <c r="S40" t="s">
-        <v>468</v>
-      </c>
-      <c r="T40" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -4651,16 +4708,16 @@
         <v>1857</v>
       </c>
       <c r="Q41" t="s">
+        <v>467</v>
+      </c>
+      <c r="R41" t="s">
+        <v>467</v>
+      </c>
+      <c r="S41" t="s">
+        <v>467</v>
+      </c>
+      <c r="T41" t="s">
         <v>468</v>
-      </c>
-      <c r="R41" t="s">
-        <v>468</v>
-      </c>
-      <c r="S41" t="s">
-        <v>468</v>
-      </c>
-      <c r="T41" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -4707,16 +4764,16 @@
         <v>1857</v>
       </c>
       <c r="Q42" t="s">
+        <v>467</v>
+      </c>
+      <c r="R42" t="s">
+        <v>467</v>
+      </c>
+      <c r="S42" t="s">
+        <v>467</v>
+      </c>
+      <c r="T42" t="s">
         <v>468</v>
-      </c>
-      <c r="R42" t="s">
-        <v>468</v>
-      </c>
-      <c r="S42" t="s">
-        <v>468</v>
-      </c>
-      <c r="T42" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -4763,16 +4820,16 @@
         <v>1857</v>
       </c>
       <c r="Q43" t="s">
+        <v>467</v>
+      </c>
+      <c r="R43" t="s">
+        <v>467</v>
+      </c>
+      <c r="S43" t="s">
+        <v>467</v>
+      </c>
+      <c r="T43" t="s">
         <v>468</v>
-      </c>
-      <c r="R43" t="s">
-        <v>468</v>
-      </c>
-      <c r="S43" t="s">
-        <v>468</v>
-      </c>
-      <c r="T43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -4819,45 +4876,45 @@
         <v>1857</v>
       </c>
       <c r="Q44" t="s">
+        <v>467</v>
+      </c>
+      <c r="R44" t="s">
+        <v>467</v>
+      </c>
+      <c r="S44" t="s">
+        <v>467</v>
+      </c>
+      <c r="T44" t="s">
         <v>468</v>
-      </c>
-      <c r="R44" t="s">
-        <v>468</v>
-      </c>
-      <c r="S44" t="s">
-        <v>468</v>
-      </c>
-      <c r="T44" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>456</v>
+      </c>
+      <c r="B45" t="s">
+        <v>448</v>
+      </c>
+      <c r="C45" t="s">
         <v>457</v>
       </c>
-      <c r="B45" t="s">
-        <v>449</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>458</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>451</v>
+      </c>
+      <c r="F45" t="s">
+        <v>452</v>
+      </c>
+      <c r="G45" t="s">
         <v>459</v>
-      </c>
-      <c r="E45" t="s">
-        <v>452</v>
-      </c>
-      <c r="F45" t="s">
-        <v>453</v>
-      </c>
-      <c r="G45" t="s">
-        <v>460</v>
       </c>
       <c r="H45">
         <v>1857</v>
       </c>
       <c r="I45" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J45" t="s">
         <v>70</v>
@@ -4866,7 +4923,7 @@
         <v>25</v>
       </c>
       <c r="L45" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M45" t="s">
         <v>72</v>
@@ -4875,45 +4932,45 @@
         <v>1857</v>
       </c>
       <c r="Q45" t="s">
+        <v>467</v>
+      </c>
+      <c r="R45" t="s">
+        <v>467</v>
+      </c>
+      <c r="S45" t="s">
+        <v>467</v>
+      </c>
+      <c r="T45" t="s">
         <v>468</v>
-      </c>
-      <c r="R45" t="s">
-        <v>468</v>
-      </c>
-      <c r="S45" t="s">
-        <v>468</v>
-      </c>
-      <c r="T45" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>447</v>
+      </c>
+      <c r="B46" t="s">
         <v>448</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>449</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>450</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>451</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>452</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>453</v>
-      </c>
-      <c r="G46" t="s">
-        <v>454</v>
       </c>
       <c r="H46">
         <v>1857</v>
       </c>
       <c r="I46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J46" t="s">
         <v>70</v>
@@ -4922,25 +4979,25 @@
         <v>25</v>
       </c>
       <c r="L46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O46">
         <v>1857</v>
       </c>
       <c r="Q46" t="s">
+        <v>467</v>
+      </c>
+      <c r="R46" t="s">
+        <v>467</v>
+      </c>
+      <c r="S46" t="s">
+        <v>467</v>
+      </c>
+      <c r="T46" t="s">
         <v>468</v>
-      </c>
-      <c r="R46" t="s">
-        <v>468</v>
-      </c>
-      <c r="S46" t="s">
-        <v>468</v>
-      </c>
-      <c r="T46" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -4987,16 +5044,16 @@
         <v>1859</v>
       </c>
       <c r="Q47" t="s">
+        <v>467</v>
+      </c>
+      <c r="R47" t="s">
+        <v>467</v>
+      </c>
+      <c r="S47" t="s">
+        <v>467</v>
+      </c>
+      <c r="T47" t="s">
         <v>468</v>
-      </c>
-      <c r="R47" t="s">
-        <v>468</v>
-      </c>
-      <c r="S47" t="s">
-        <v>468</v>
-      </c>
-      <c r="T47" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -5043,54 +5100,54 @@
         <v>1859</v>
       </c>
       <c r="Q48" t="s">
+        <v>467</v>
+      </c>
+      <c r="R48" t="s">
+        <v>467</v>
+      </c>
+      <c r="S48" t="s">
+        <v>467</v>
+      </c>
+      <c r="T48" t="s">
         <v>468</v>
-      </c>
-      <c r="R48" t="s">
-        <v>468</v>
-      </c>
-      <c r="S48" t="s">
-        <v>468</v>
-      </c>
-      <c r="T48" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>422</v>
+      </c>
+      <c r="B49" t="s">
         <v>423</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>424</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>425</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>426</v>
-      </c>
-      <c r="E49" t="s">
-        <v>427</v>
       </c>
       <c r="F49" t="s">
         <v>156</v>
       </c>
       <c r="G49" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H49">
         <v>1859</v>
       </c>
       <c r="I49" t="s">
+        <v>428</v>
+      </c>
+      <c r="J49" t="s">
         <v>429</v>
-      </c>
-      <c r="J49" t="s">
-        <v>430</v>
       </c>
       <c r="K49" t="s">
         <v>25</v>
       </c>
       <c r="L49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M49" t="s">
         <v>171</v>
@@ -5099,16 +5156,16 @@
         <v>1859</v>
       </c>
       <c r="Q49" t="s">
+        <v>467</v>
+      </c>
+      <c r="R49" t="s">
+        <v>467</v>
+      </c>
+      <c r="S49" t="s">
+        <v>467</v>
+      </c>
+      <c r="T49" t="s">
         <v>468</v>
-      </c>
-      <c r="R49" t="s">
-        <v>468</v>
-      </c>
-      <c r="S49" t="s">
-        <v>468</v>
-      </c>
-      <c r="T49" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -5155,16 +5212,16 @@
         <v>1859</v>
       </c>
       <c r="Q50" t="s">
+        <v>467</v>
+      </c>
+      <c r="R50" t="s">
+        <v>467</v>
+      </c>
+      <c r="S50" t="s">
+        <v>467</v>
+      </c>
+      <c r="T50" t="s">
         <v>468</v>
-      </c>
-      <c r="R50" t="s">
-        <v>468</v>
-      </c>
-      <c r="S50" t="s">
-        <v>468</v>
-      </c>
-      <c r="T50" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -5211,16 +5268,16 @@
         <v>1859</v>
       </c>
       <c r="Q51" t="s">
+        <v>467</v>
+      </c>
+      <c r="R51" t="s">
+        <v>467</v>
+      </c>
+      <c r="S51" t="s">
+        <v>467</v>
+      </c>
+      <c r="T51" t="s">
         <v>468</v>
-      </c>
-      <c r="R51" t="s">
-        <v>468</v>
-      </c>
-      <c r="S51" t="s">
-        <v>468</v>
-      </c>
-      <c r="T51" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -5267,16 +5324,16 @@
         <v>1859</v>
       </c>
       <c r="Q52" t="s">
+        <v>467</v>
+      </c>
+      <c r="R52" t="s">
+        <v>467</v>
+      </c>
+      <c r="S52" t="s">
+        <v>467</v>
+      </c>
+      <c r="T52" t="s">
         <v>468</v>
-      </c>
-      <c r="R52" t="s">
-        <v>468</v>
-      </c>
-      <c r="S52" t="s">
-        <v>468</v>
-      </c>
-      <c r="T52" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -5332,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="T53" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -5388,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -5444,7 +5501,7 @@
         <v>6</v>
       </c>
       <c r="T55" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -5491,16 +5548,16 @@
         <v>1866</v>
       </c>
       <c r="Q56" t="s">
+        <v>467</v>
+      </c>
+      <c r="R56" t="s">
+        <v>467</v>
+      </c>
+      <c r="S56" t="s">
+        <v>467</v>
+      </c>
+      <c r="T56" t="s">
         <v>468</v>
-      </c>
-      <c r="R56" t="s">
-        <v>468</v>
-      </c>
-      <c r="S56" t="s">
-        <v>468</v>
-      </c>
-      <c r="T56" t="s">
-        <v>469</v>
       </c>
     </row>
   </sheetData>
